--- a/翻译文件内容_V1.0.xlsx
+++ b/翻译文件内容_V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fogyi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF0554D-645E-4633-AEE1-B9887B3BAB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8286B1-3B2A-4A8D-8D08-B9F8A195E7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{6F416A08-89B3-4C10-9E36-734524D4590B}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="428">
   <si>
     <t>Region</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1572,13 +1572,87 @@
     <t>https://www.udemy.com/course/powershell-u/?referralCode=AF735D50DE96A5824AA5</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>我喜欢你，你喜欢我吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的代码内容使用的是M语言代码编写，如果你也希望能够学会编写，欢迎学习我的系列课程哦。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过创建Azure翻译服务获取API的Key后复制到值列中，参考后面的连接获取API的KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel 翻译成各国语言（180种，一个月200万字符免费）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不愿意理我给</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APIKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ته څوک یې ، زه نیما پېژنم</t>
+  </si>
+  <si>
+    <t>ته نه غواړې چې ما ته پام وکړې</t>
+  </si>
+  <si>
+    <t>من نمی خواهم شما را بشناسم ، امیدوارم که شما ما را اذیت نکنید</t>
+  </si>
+  <si>
+    <t>باور وکړه، زه نه غواړم تا ته پام وکړم</t>
+  </si>
+  <si>
+    <t>زه تا خوښوم ، آیا ته ما خوښوې</t>
+  </si>
+  <si>
+    <t>1uABsffCrAqLVzdbsiRFAJx0K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是谁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不想认识你</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你相信我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果你觉得好用，欢迎你给我捐款我，让我做出更多可以用Excel玩的东西-一元两元都是爱，10元20元会更好 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>😊😊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">PowerBI </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF002060"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1588,85 +1662,80 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>我喜欢你，你喜欢我吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">如果你觉得好用，欢迎你给我捐款我，让我做出更多可以用Excel玩的东西-一元两元都是爱，10元20元会更好 </t>
+      <t>ComfyUI</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
+        <color rgb="FF002060"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>😊😊</t>
+      <t>从入门到精通实现生图效果</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>这里的代码内容使用的是M语言代码编写，如果你也希望能够学会编写，欢迎学习我的系列课程哦。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过创建Azure翻译服务获取API的Key后复制到值列中，参考后面的连接获取API的KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel 翻译成各国语言（180种，一个月200万字符免费）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不愿意理我给</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APIKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ته څوک یې ، زه نیما پېژنم</t>
-  </si>
-  <si>
-    <t>ته نه غواړې چې ما ته پام وکړې</t>
-  </si>
-  <si>
-    <t>من نمی خواهم شما را بشناسم ، امیدوارم که شما ما را اذیت نکنید</t>
-  </si>
-  <si>
-    <t>باور وکړه، زه نه غواړم تا ته پام وکړم</t>
-  </si>
-  <si>
-    <t>زه تا خوښوم ، آیا ته ما خوښوې</t>
-  </si>
-  <si>
-    <t>1uABsffCrAqLVzdbsiRFAJx0K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是谁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我不想认识你</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你相信我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <t>ComfyUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从入门到精通之七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现文生视频、文生音频、视频生视频效果</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/comfyui-comfyui-b/?referralCode=0974675316B91ED5EC60</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/comfyui-e/?referralCode=B601C749B53575A170C0</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/comfyui-comfyuicontrolnet/?referralCode=E518E1189A05B21450C0</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/comfyui-comfyuilora/?referralCode=9BAAA96138474310F4BF</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/comfyui-comfyui/?referralCode=D77F6C93673BE982787C</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/comfyui-comfyui-w/?referralCode=47B8E74E0006513DA576</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1749,8 +1818,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1759,21 +1827,43 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="24"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1794,7 +1884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,7 +2025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1984,23 +2080,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2217,14 +2322,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>203202</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1865591</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>58574</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>96674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2247,7 +2352,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3079752" y="5734050"/>
+          <a:off x="3079752" y="5702300"/>
           <a:ext cx="2322789" cy="3163724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2260,15 +2365,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2730501</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>2705101</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>69848</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4546600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>44448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2298,7 +2403,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6267451" y="5968999"/>
+          <a:off x="6242051" y="5518149"/>
           <a:ext cx="1841499" cy="2762249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2314,6 +2419,94 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>612364</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C669742-583A-6045-AA73-2CD4A005E258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14662150" y="495300"/>
+          <a:ext cx="2104614" cy="3141331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>278983</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>134697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26AE996-A1F6-0BF2-E78F-7757C713FE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14617700" y="3962400"/>
+          <a:ext cx="2476083" cy="3519247"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2682,67 +2875,67 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.4140625" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="43.5" customWidth="1"/>
     <col min="5" max="5" width="29.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="125.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="7"/>
@@ -2750,10 +2943,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2876,13 +3069,13 @@
     </row>
     <row r="4" spans="1:4" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -2930,173 +3123,173 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.08203125" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="70.4140625" customWidth="1"/>
-    <col min="6" max="6" width="15.4140625" customWidth="1"/>
-    <col min="8" max="8" width="2.58203125" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="62.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="C2" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="23" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="C3" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="23" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="C4" s="18" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="C4" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="23" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="C5" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="C6" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="23" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="C7" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="23" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="C8" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="C9" s="18" t="s">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="C9" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="C10" s="18" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="C10" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="23" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
       <c r="C11" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>387</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
       <c r="C12" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>389</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
       <c r="C13" s="7" t="s">
         <v>385</v>
       </c>
@@ -3107,8 +3300,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
       <c r="C14" s="7" t="s">
         <v>385</v>
       </c>
@@ -3119,8 +3312,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
       <c r="C15" s="7" t="s">
         <v>385</v>
       </c>
@@ -3131,131 +3324,143 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="C16" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="20"/>
+      <c r="C17" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="25" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="20"/>
+      <c r="C18" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="C19" s="7" t="s">
+      <c r="E18" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="C19" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="20"/>
+      <c r="C20" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="25" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="20"/>
+      <c r="C21" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="25" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="20"/>
+      <c r="C22" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="25" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="20"/>
+      <c r="C23" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="E23" s="7"/>
+      <c r="D23" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="20"/>
+      <c r="C24" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="25" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="20"/>
+      <c r="C25" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="25" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C29" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="21"/>
+      <c r="A27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="25" x14ac:dyDescent="0.3">
+      <c r="C28" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vkwVvGeupvVdMOw6PepsoQPhw3iuwCM0oVtLU1EMiIomal8vwbMYbn6om7OttV3ZNfmhEz71rQkTu17ronk75A==" saltValue="Z+GvVjPjKYYDtOffDi1Mmg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ic5+CfM7y6Bwy+/uV3i4ceaO+X0ul/wdR6/OraKv5hHXDFdH6guxs97BoFrvVuR8MQXok0JJhL8Gh+sHWHWJ/A==" saltValue="RxrrnGEdh/ns2jTmmrfQMg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:A28"/>
+    <mergeCell ref="A1:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
